--- a/mbs-perturbation/nano/welm/nearmiss/nano_welm_rbf_nearmiss_results.xlsx
+++ b/mbs-perturbation/nano/welm/nearmiss/nano_welm_rbf_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.700956937799043</v>
+        <v>0.6454293628808865</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6714285714285715</v>
+        <v>0.6329639889196677</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5864661654135339</v>
+        <v>0.6066481994459834</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.575</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5984848484848484</v>
+        <v>0.6029411764705882</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5985365853658535</v>
+        <v>0.5692745376955903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2689564821143768</v>
+        <v>0.2263777089783282</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4007073386383732</v>
+        <v>0.3366713286713287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6067053998632946</v>
+        <v>0.6025965455434251</v>
       </c>
     </row>
   </sheetData>
